--- a/DataPath.xlsx
+++ b/DataPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Abhirath\iiitb\Sem2\CA\Projects\MIPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEF382B-F42F-45FB-A372-EF8F810DCB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A484412-69E1-4D58-A288-54E9B28CA4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9831B4C0-9F70-4AB2-BBBF-2DA43A203AC8}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="19968" windowHeight="12336" xr2:uid="{9831B4C0-9F70-4AB2-BBBF-2DA43A203AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>R-format</t>
   </si>
@@ -141,13 +141,52 @@
   </si>
   <si>
     <t>&lt;-syscall type</t>
+  </si>
+  <si>
+    <t>multiplexer between ALU's zero line and and gate</t>
+  </si>
+  <si>
+    <t>write register multipexer has to take 25 to 21 also</t>
+  </si>
+  <si>
+    <t>mux before pc from sign extend</t>
+  </si>
+  <si>
+    <t>mux before pc from read data 1</t>
+  </si>
+  <si>
+    <t>write register multipexer has to also take hard coded $ra</t>
+  </si>
+  <si>
+    <t>multiplexer after data access has to become bigger and take current PC value</t>
+  </si>
+  <si>
+    <t>hi/lo stuff</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>sll/sra</t>
+  </si>
+  <si>
+    <t>alu port 2 needs bigger mux for 10 to 6 of instruction directly</t>
+  </si>
+  <si>
+    <t>week 5-6</t>
+  </si>
+  <si>
+    <t>page 21</t>
+  </si>
+  <si>
+    <t>not R-format</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +200,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,12 +229,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -334,35 +386,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -371,17 +595,67 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,463 +990,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07842CE3-3051-43C7-8C79-50ED446F02F3}">
-  <dimension ref="B2:O21"/>
+  <dimension ref="B2:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+    <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <v>3</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <v>4</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="9">
         <v>5</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="9">
         <v>6</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="9">
         <v>7</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="9">
         <v>8</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="9">
         <v>9</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>10</v>
       </c>
       <c r="M3" s="4">
-        <v>11</v>
-      </c>
-      <c r="N3" s="4">
         <v>12</v>
       </c>
-      <c r="O3" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="15" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="19" t="s">
+      <c r="M4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="22">
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="14">
         <v>4</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="14">
         <v>5</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="14">
         <v>9</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="14">
         <v>10</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="15">
         <v>30</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="K7" s="13"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="23">
         <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="43"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="23">
         <v>3</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="34"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="23">
         <v>4</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="34"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="23">
         <v>5</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="34"/>
+    </row>
+    <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="23">
         <v>6</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
+      <c r="D12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="34"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="23">
         <v>7</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="34"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="23">
         <v>8</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="6"/>
+      <c r="O14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="31">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="34"/>
+    </row>
+    <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="23">
         <v>9</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="7">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="6"/>
+      <c r="O15" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="31">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="34"/>
+    </row>
+    <row r="16" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="23">
         <v>10</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="7">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="6"/>
+      <c r="O16" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="38"/>
+    </row>
+    <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="23">
         <v>11</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="23">
         <v>12</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="7">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="23">
         <v>13</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="23">
         <v>14</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="8">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="23">
         <v>15</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="23">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="21">
+        <v>17</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:W8"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="Q10:W10"/>
+    <mergeCell ref="Q11:W11"/>
+    <mergeCell ref="Q12:W12"/>
+    <mergeCell ref="Q13:W13"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="Q15:W15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataPath.xlsx
+++ b/DataPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Abhirath\iiitb\Sem2\CA\Projects\MIPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A484412-69E1-4D58-A288-54E9B28CA4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7053E52-B684-4618-B560-785BD2284EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="19968" windowHeight="12336" xr2:uid="{9831B4C0-9F70-4AB2-BBBF-2DA43A203AC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9831B4C0-9F70-4AB2-BBBF-2DA43A203AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>R-format</t>
   </si>
@@ -180,6 +180,27 @@
   </si>
   <si>
     <t>not R-format</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>ALU task</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>mag</t>
+  </si>
+  <si>
+    <t>ret</t>
   </si>
 </sst>
 </file>
@@ -208,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +260,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -574,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,7 +613,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -595,19 +621,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,13 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -655,7 +667,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,48 +1033,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07842CE3-3051-43C7-8C79-50ED446F02F3}">
-  <dimension ref="B2:W23"/>
+  <dimension ref="A2:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>4</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>6</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>7</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>8</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>9</v>
       </c>
       <c r="L3" s="3">
@@ -1045,19 +1089,19 @@
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="11" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1065,516 +1109,779 @@
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="6"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="22">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>5</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <v>9</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="11">
         <v>10</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <v>30</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="6"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="23">
+      <c r="B8" s="18">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="39" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="5"/>
+      <c r="O8" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="42" t="s">
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="43"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="36"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="23">
+      <c r="B9" s="18">
         <v>3</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="33" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="5"/>
+      <c r="O9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="26">
         <v>1</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="Q9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="34"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="40"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="23">
+      <c r="B10" s="18">
         <v>4</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="33" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="5"/>
+      <c r="O10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="26">
         <v>2</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="34"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="40"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="23">
+      <c r="B11" s="18">
         <v>5</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="33" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="5"/>
+      <c r="O11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="26">
         <v>3</v>
       </c>
-      <c r="Q11" s="32" t="s">
+      <c r="Q11" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="34"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="40"/>
     </row>
     <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="23">
+      <c r="B12" s="18">
         <v>6</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="33" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="26">
         <v>4</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="34"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="40"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="23">
+      <c r="B13" s="18">
         <v>7</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="6"/>
-      <c r="O13" s="33" t="s">
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="5"/>
+      <c r="O13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="26">
         <v>5</v>
       </c>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="34"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="40"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="23">
+      <c r="B14" s="18">
         <v>8</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="6"/>
-      <c r="O14" s="33" t="s">
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="5"/>
+      <c r="O14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="26">
         <v>6</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="Q14" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="34"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="40"/>
     </row>
     <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="23">
+      <c r="B15" s="18">
         <v>9</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="6"/>
-      <c r="O15" s="33" t="s">
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="5"/>
+      <c r="O15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="26">
         <v>7</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="34"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="40"/>
     </row>
     <row r="16" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="23">
+      <c r="B16" s="18">
         <v>10</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="16" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="6"/>
-      <c r="O16" s="35" t="s">
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="5"/>
+      <c r="O16" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="29">
         <v>8</v>
       </c>
-      <c r="Q16" s="37" t="s">
+      <c r="Q16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="38"/>
-    </row>
-    <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="23">
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="31"/>
+    </row>
+    <row r="17" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="18">
         <v>11</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="30" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="23">
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="18">
         <v>12</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="23">
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="18">
         <v>13</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="23">
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="18">
         <v>14</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="23">
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="18">
         <v>15</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="23">
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="18">
         <v>16</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="21">
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="16">
         <v>17</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="49"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="49"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="49"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="49"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="49"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="49"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="49"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="49"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="49"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="49"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="49"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="49"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="49"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="51"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="51"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="43"/>
+      <c r="C55" s="42"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C33:C34"/>
     <mergeCell ref="Q16:W16"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="S8:W8"/>

--- a/DataPath.xlsx
+++ b/DataPath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51c2a47feea84a7e/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gathi\projects\MIPS-Processor-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{E7053E52-B684-4618-B560-785BD2284EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC62F1A3-53B0-473C-A5BA-7D0E5E437693}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CEBE65-BC92-4D24-A150-EA3DE13C9BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9831B4C0-9F70-4AB2-BBBF-2DA43A203AC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9831B4C0-9F70-4AB2-BBBF-2DA43A203AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -796,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,48 +850,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
@@ -899,20 +857,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,10 +927,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1253,24 +1248,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07842CE3-3051-43C7-8C79-50ED446F02F3}">
   <dimension ref="B2:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:X13"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="121" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB27:AB28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
@@ -1307,10 +1302,10 @@
       <c r="M3" s="4">
         <v>12</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-    </row>
-    <row r="4" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1329,10 +1324,8 @@
       <c r="M4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-    </row>
-    <row r="5" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1367,23 +1360,21 @@
         <v>28</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="42" t="s">
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="43"/>
-    </row>
-    <row r="6" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="58"/>
+    </row>
+    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1400,25 +1391,23 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
       <c r="P6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="Q6" s="26">
         <v>1</v>
       </c>
-      <c r="R6" s="49" t="s">
+      <c r="R6" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="50"/>
-    </row>
-    <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="62"/>
+    </row>
+    <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <v>1</v>
       </c>
@@ -1443,31 +1432,29 @@
       <c r="I7" s="12">
         <v>30</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="45"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="34"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
       <c r="P7" s="27" t="s">
         <v>2</v>
       </c>
       <c r="Q7" s="26">
         <v>2</v>
       </c>
-      <c r="R7" s="49" t="s">
+      <c r="R7" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="50"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="62"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <v>2</v>
       </c>
@@ -1484,25 +1471,23 @@
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
       <c r="P8" s="27" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="26">
         <v>3</v>
       </c>
-      <c r="R8" s="49" t="s">
+      <c r="R8" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="50"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="62"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <v>3</v>
       </c>
@@ -1519,25 +1504,23 @@
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
       <c r="P9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="Q9" s="26">
         <v>4</v>
       </c>
-      <c r="R9" s="49" t="s">
+      <c r="R9" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="50"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="62"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <v>4</v>
       </c>
@@ -1554,25 +1537,23 @@
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
       <c r="P10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="Q10" s="26">
         <v>5</v>
       </c>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="50"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="62"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <v>5</v>
       </c>
@@ -1589,25 +1570,23 @@
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
       <c r="P11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="Q11" s="26">
         <v>6</v>
       </c>
-      <c r="R11" s="49" t="s">
+      <c r="R11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="50"/>
-    </row>
-    <row r="12" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="62"/>
+    </row>
+    <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18">
         <v>6</v>
       </c>
@@ -1626,25 +1605,23 @@
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
       <c r="P12" s="27" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="26">
         <v>7</v>
       </c>
-      <c r="R12" s="49" t="s">
+      <c r="R12" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="50"/>
-    </row>
-    <row r="13" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="62"/>
+    </row>
+    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
         <v>7</v>
       </c>
@@ -1661,25 +1638,23 @@
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
       <c r="P13" s="28" t="s">
         <v>41</v>
       </c>
       <c r="Q13" s="29">
         <v>8</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="38"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="53"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <v>8</v>
       </c>
@@ -1696,10 +1671,8 @@
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-    </row>
-    <row r="15" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>9</v>
       </c>
@@ -1716,10 +1689,8 @@
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-    </row>
-    <row r="16" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>10</v>
       </c>
@@ -1736,10 +1707,8 @@
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-    </row>
-    <row r="17" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="18">
         <v>11</v>
       </c>
@@ -1756,10 +1725,8 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-    </row>
-    <row r="18" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>12</v>
       </c>
@@ -1776,23 +1743,21 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="57" t="s">
+      <c r="P18" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57" t="s">
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="S18" s="60" t="s">
+      <c r="S18" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="59"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="48"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <v>13</v>
       </c>
@@ -1809,31 +1774,29 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="51">
+      <c r="P19" s="37">
         <v>0</v>
       </c>
-      <c r="Q19" s="56" t="s">
+      <c r="Q19" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="R19" s="56">
+      <c r="R19" s="42">
         <v>4</v>
       </c>
-      <c r="S19" s="53" t="s">
+      <c r="S19" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="53" t="s">
+      <c r="T19" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="U19" s="53" t="s">
+      <c r="U19" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="V19" s="53" t="s">
+      <c r="V19" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <v>14</v>
       </c>
@@ -1850,23 +1813,21 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="51">
+      <c r="P20" s="37">
         <v>1</v>
       </c>
-      <c r="Q20" s="54" t="s">
+      <c r="Q20" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="R20" s="54">
+      <c r="R20" s="40">
         <v>0</v>
       </c>
-      <c r="S20" s="61"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S20" s="44"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <v>15</v>
       </c>
@@ -1883,23 +1844,21 @@
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="51">
+      <c r="P21" s="37">
         <v>2</v>
       </c>
-      <c r="Q21" s="54" t="s">
+      <c r="Q21" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="R21" s="54">
+      <c r="R21" s="40">
         <v>0</v>
       </c>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <v>16</v>
       </c>
@@ -1916,23 +1875,21 @@
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="51">
+      <c r="P22" s="37">
         <v>3</v>
       </c>
-      <c r="Q22" s="54" t="s">
+      <c r="Q22" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="R22" s="54">
+      <c r="R22" s="40">
         <v>0</v>
       </c>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-    </row>
-    <row r="23" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+    </row>
+    <row r="23" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16">
         <v>17</v>
       </c>
@@ -1949,189 +1906,187 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="51">
+      <c r="P23" s="37">
         <v>4</v>
       </c>
-      <c r="Q23" s="54" t="s">
+      <c r="Q23" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="R23" s="54">
+      <c r="R23" s="40">
         <v>3</v>
       </c>
-      <c r="S23" s="54" t="s">
+      <c r="S23" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="T23" s="54" t="s">
+      <c r="T23" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="U23" s="54" t="s">
+      <c r="U23" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="V23" s="54"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="P24" s="51">
+      <c r="V23" s="40"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P24" s="37">
         <v>5</v>
       </c>
-      <c r="Q24" s="54" t="s">
+      <c r="Q24" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="54">
+      <c r="R24" s="40">
         <v>0</v>
       </c>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-    </row>
-    <row r="25" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P25" s="51">
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+    </row>
+    <row r="25" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P25" s="37">
         <v>6</v>
       </c>
-      <c r="Q25" s="54" t="s">
+      <c r="Q25" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="R25" s="54">
+      <c r="R25" s="40">
         <v>3</v>
       </c>
-      <c r="S25" s="54" t="s">
+      <c r="S25" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="T25" s="54" t="s">
+      <c r="T25" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="U25" s="54" t="s">
+      <c r="U25" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="V25" s="54"/>
-    </row>
-    <row r="26" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V25" s="40"/>
+    </row>
+    <row r="26" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="P26" s="51">
+      <c r="P26" s="37">
         <v>7</v>
       </c>
-      <c r="Q26" s="54" t="s">
+      <c r="Q26" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="R26" s="54">
+      <c r="R26" s="40">
         <v>0</v>
       </c>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="P27" s="51">
+      <c r="P27" s="37">
         <v>8</v>
       </c>
-      <c r="Q27" s="54" t="s">
+      <c r="Q27" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="R27" s="54">
+      <c r="R27" s="40">
         <v>0</v>
       </c>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="P28" s="51">
+      <c r="C28" s="51"/>
+      <c r="P28" s="37">
         <v>9</v>
       </c>
-      <c r="Q28" s="54" t="s">
+      <c r="Q28" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="R28" s="54">
+      <c r="R28" s="40">
         <v>2</v>
       </c>
-      <c r="S28" s="54" t="s">
+      <c r="S28" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="T28" s="54" t="s">
+      <c r="T28" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-    </row>
-    <row r="29" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+    </row>
+    <row r="29" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="P29" s="52">
+      <c r="C29" s="51"/>
+      <c r="P29" s="38">
         <v>10</v>
       </c>
-      <c r="Q29" s="55" t="s">
+      <c r="Q29" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="R29" s="55">
+      <c r="R29" s="41">
         <v>4</v>
       </c>
-      <c r="S29" s="55" t="s">
+      <c r="S29" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="T29" s="55" t="s">
+      <c r="T29" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="U29" s="55" t="s">
+      <c r="U29" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="V29" s="55" t="s">
+      <c r="V29" s="41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="48"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C30" s="51"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="48"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C31" s="51"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="48"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="51"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="48"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="51"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>8</v>
       </c>
@@ -2139,93 +2094,93 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="48"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="51"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="48"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="51"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="48"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="51"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="48"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="51"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="48"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="51"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="48"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="51"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="48"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="51"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="46"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="49"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="46"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="49"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="32" t="s">
         <v>3</v>
       </c>
@@ -2233,7 +2188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="32" t="s">
         <v>9</v>
       </c>
@@ -2241,7 +2196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
         <v>11</v>
       </c>
@@ -2249,7 +2204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
         <v>23</v>
       </c>
@@ -2257,7 +2212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="23" t="s">
         <v>19</v>
       </c>
@@ -2265,23 +2220,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="32"/>
       <c r="C55" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C33:C34"/>
     <mergeCell ref="R13:X13"/>
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="T5:X5"/>
@@ -2293,6 +2241,13 @@
     <mergeCell ref="R10:X10"/>
     <mergeCell ref="R11:X11"/>
     <mergeCell ref="R12:X12"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C33:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
